--- a/2022 Data/Attendees/2021 Virtual.xlsx
+++ b/2022 Data/Attendees/2021 Virtual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/code/alyssageorgee/uaces/2022 Data/Attendees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C63B2D-2E24-FA43-963D-B54AED27A5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C774BD4C-EC5A-994C-B17F-445438293626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{8D8448E3-6BA5-4331-BA9B-40AB752A1561}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="604">
   <si>
     <t>organisation</t>
   </si>
@@ -1190,10 +1190,664 @@
     <t>Affiliate Member</t>
   </si>
   <si>
-    <t>countries</t>
-  </si>
-  <si>
     <t>number of attendants</t>
+  </si>
+  <si>
+    <t>Abyei</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Aksai Chin</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Azores Islands</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guantanamo</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Hala'ib Triangle</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Ilemi Triangle</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jammu-Kashmir</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuril Islands</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Ma'tan al-Sarra</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Madeira Islands</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Midway Is.</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Island</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia &amp; the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen Islands</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>U.K. of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1556,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54FF103-DC63-4078-9EB6-C0938D94D461}">
   <dimension ref="A1:G434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="F248" sqref="F248:G248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1584,10 +2238,10 @@
         <v>373</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1604,10 +2258,7 @@
         <v>375</v>
       </c>
       <c r="F2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1624,10 +2275,7 @@
         <v>376</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1644,10 +2292,7 @@
         <v>376</v>
       </c>
       <c r="F4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1664,10 +2309,7 @@
         <v>377</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1684,10 +2326,7 @@
         <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6">
-        <v>32</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1704,10 +2343,7 @@
         <v>375</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1724,10 +2360,7 @@
         <v>374</v>
       </c>
       <c r="F8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1744,10 +2377,7 @@
         <v>376</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1764,10 +2394,7 @@
         <v>376</v>
       </c>
       <c r="F10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1784,10 +2411,7 @@
         <v>379</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1804,10 +2428,7 @@
         <v>374</v>
       </c>
       <c r="F12" t="s">
-        <v>306</v>
-      </c>
-      <c r="G12">
-        <v>4</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1824,10 +2445,10 @@
         <v>378</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1844,10 +2465,7 @@
         <v>375</v>
       </c>
       <c r="F14" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1864,10 +2482,7 @@
         <v>375</v>
       </c>
       <c r="F15" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1884,10 +2499,10 @@
         <v>375</v>
       </c>
       <c r="F16" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1904,10 +2519,10 @@
         <v>374</v>
       </c>
       <c r="F17" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1924,10 +2539,7 @@
         <v>376</v>
       </c>
       <c r="F18" t="s">
-        <v>318</v>
-      </c>
-      <c r="G18">
-        <v>35</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1944,10 +2556,7 @@
         <v>380</v>
       </c>
       <c r="F19" t="s">
-        <v>320</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1964,10 +2573,7 @@
         <v>381</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20">
-        <v>15</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1984,10 +2590,7 @@
         <v>374</v>
       </c>
       <c r="F21" t="s">
-        <v>324</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2004,10 +2607,7 @@
         <v>380</v>
       </c>
       <c r="F22" t="s">
-        <v>326</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2024,10 +2624,7 @@
         <v>379</v>
       </c>
       <c r="F23" t="s">
-        <v>328</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2044,7 +2641,7 @@
         <v>375</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>292</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2064,10 +2661,10 @@
         <v>380</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="G25">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2084,10 +2681,7 @@
         <v>379</v>
       </c>
       <c r="F26" t="s">
-        <v>334</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2104,10 +2698,7 @@
         <v>375</v>
       </c>
       <c r="F27" t="s">
-        <v>336</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2124,10 +2715,7 @@
         <v>379</v>
       </c>
       <c r="F28" t="s">
-        <v>338</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2144,10 +2732,7 @@
         <v>379</v>
       </c>
       <c r="F29" t="s">
-        <v>340</v>
-      </c>
-      <c r="G29">
-        <v>19</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2164,10 +2749,7 @@
         <v>376</v>
       </c>
       <c r="F30" t="s">
-        <v>342</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2184,10 +2766,10 @@
         <v>376</v>
       </c>
       <c r="F31" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2204,10 +2786,7 @@
         <v>380</v>
       </c>
       <c r="F32" t="s">
-        <v>346</v>
-      </c>
-      <c r="G32">
-        <v>24</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -2224,10 +2803,7 @@
         <v>375</v>
       </c>
       <c r="F33" t="s">
-        <v>348</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2244,10 +2820,10 @@
         <v>376</v>
       </c>
       <c r="F34" t="s">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2264,10 +2840,7 @@
         <v>376</v>
       </c>
       <c r="F35" t="s">
-        <v>352</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2284,10 +2857,7 @@
         <v>376</v>
       </c>
       <c r="F36" t="s">
-        <v>354</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2304,10 +2874,7 @@
         <v>380</v>
       </c>
       <c r="F37" t="s">
-        <v>356</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -2324,7 +2891,7 @@
         <v>380</v>
       </c>
       <c r="F38" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -2344,10 +2911,7 @@
         <v>376</v>
       </c>
       <c r="F39" t="s">
-        <v>360</v>
-      </c>
-      <c r="G39">
-        <v>20</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2364,10 +2928,7 @@
         <v>375</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
-      </c>
-      <c r="G40">
-        <v>5</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2384,10 +2945,7 @@
         <v>380</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
+        <v>417</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2404,10 +2962,7 @@
         <v>375</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
-      </c>
-      <c r="G42">
-        <v>8</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2424,7 +2979,7 @@
         <v>375</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2444,10 +2999,7 @@
         <v>379</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
-      </c>
-      <c r="G44">
-        <v>137</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2464,10 +3016,7 @@
         <v>376</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
-      </c>
-      <c r="G45">
-        <v>10</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2483,6 +3032,9 @@
       <c r="D46" t="s">
         <v>375</v>
       </c>
+      <c r="F46" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2497,6 +3049,9 @@
       <c r="D47" t="s">
         <v>374</v>
       </c>
+      <c r="F47" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2511,8 +3066,14 @@
       <c r="D48" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>17</v>
       </c>
@@ -2525,8 +3086,11 @@
       <c r="D49" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -2539,8 +3103,11 @@
       <c r="D50" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -2553,8 +3120,11 @@
       <c r="D51" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2567,8 +3137,11 @@
       <c r="D52" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -2581,8 +3154,11 @@
       <c r="D53" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -2595,8 +3171,11 @@
       <c r="D54" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>41</v>
       </c>
@@ -2609,8 +3188,11 @@
       <c r="D55" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -2623,8 +3205,11 @@
       <c r="D56" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -2637,8 +3222,11 @@
       <c r="D57" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -2651,8 +3239,14 @@
       <c r="D58" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -2665,8 +3259,11 @@
       <c r="D59" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -2679,8 +3276,11 @@
       <c r="D60" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>46</v>
       </c>
@@ -2693,8 +3293,14 @@
       <c r="D61" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -2707,8 +3313,11 @@
       <c r="D62" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -2721,8 +3330,11 @@
       <c r="D63" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -2735,8 +3347,14 @@
       <c r="D64" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>310</v>
+      </c>
+      <c r="G64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -2749,8 +3367,11 @@
       <c r="D65" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -2763,8 +3384,11 @@
       <c r="D66" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -2777,8 +3401,11 @@
       <c r="D67" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>48</v>
       </c>
@@ -2791,8 +3418,11 @@
       <c r="D68" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -2805,8 +3435,14 @@
       <c r="D69" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>312</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -2819,8 +3455,11 @@
       <c r="D70" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2833,8 +3472,11 @@
       <c r="D71" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>49</v>
       </c>
@@ -2847,8 +3489,11 @@
       <c r="D72" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -2861,8 +3506,11 @@
       <c r="D73" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>49</v>
       </c>
@@ -2875,8 +3523,11 @@
       <c r="D74" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -2889,8 +3540,11 @@
       <c r="D75" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -2903,8 +3557,11 @@
       <c r="D76" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -2917,8 +3574,11 @@
       <c r="D77" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -2931,8 +3591,14 @@
       <c r="D78" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>314</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>54</v>
       </c>
@@ -2945,8 +3611,14 @@
       <c r="D79" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>316</v>
+      </c>
+      <c r="G79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>55</v>
       </c>
@@ -2959,8 +3631,11 @@
       <c r="D80" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -2973,8 +3648,11 @@
       <c r="D81" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>57</v>
       </c>
@@ -2987,8 +3665,11 @@
       <c r="D82" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>58</v>
       </c>
@@ -3001,8 +3682,11 @@
       <c r="D83" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3699,11 @@
       <c r="D84" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>59</v>
       </c>
@@ -3029,8 +3716,11 @@
       <c r="D85" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -3043,8 +3733,11 @@
       <c r="D86" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>61</v>
       </c>
@@ -3057,8 +3750,14 @@
       <c r="D87" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>318</v>
+      </c>
+      <c r="G87">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>62</v>
       </c>
@@ -3071,8 +3770,11 @@
       <c r="D88" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>63</v>
       </c>
@@ -3085,8 +3787,11 @@
       <c r="D89" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>64</v>
       </c>
@@ -3099,8 +3804,11 @@
       <c r="D90" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>65</v>
       </c>
@@ -3113,8 +3821,14 @@
       <c r="D91" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>320</v>
+      </c>
+      <c r="G91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>66</v>
       </c>
@@ -3127,8 +3841,11 @@
       <c r="D92" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>67</v>
       </c>
@@ -3141,8 +3858,11 @@
       <c r="D93" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>68</v>
       </c>
@@ -3155,8 +3875,11 @@
       <c r="D94" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>69</v>
       </c>
@@ -3169,8 +3892,11 @@
       <c r="D95" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -3183,8 +3909,11 @@
       <c r="D96" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>71</v>
       </c>
@@ -3197,8 +3926,11 @@
       <c r="D97" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>72</v>
       </c>
@@ -3211,8 +3943,11 @@
       <c r="D98" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>73</v>
       </c>
@@ -3225,8 +3960,11 @@
       <c r="D99" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>74</v>
       </c>
@@ -3239,8 +3977,11 @@
       <c r="D100" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3253,8 +3994,11 @@
       <c r="D101" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>75</v>
       </c>
@@ -3267,8 +4011,11 @@
       <c r="D102" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>76</v>
       </c>
@@ -3281,8 +4028,11 @@
       <c r="D103" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>77</v>
       </c>
@@ -3295,8 +4045,11 @@
       <c r="D104" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>78</v>
       </c>
@@ -3309,8 +4062,11 @@
       <c r="D105" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>79</v>
       </c>
@@ -3323,8 +4079,11 @@
       <c r="D106" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>80</v>
       </c>
@@ -3337,8 +4096,11 @@
       <c r="D107" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -3351,8 +4113,14 @@
       <c r="D108" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>322</v>
+      </c>
+      <c r="G108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>82</v>
       </c>
@@ -3365,8 +4133,11 @@
       <c r="D109" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -3379,8 +4150,11 @@
       <c r="D110" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>84</v>
       </c>
@@ -3393,8 +4167,14 @@
       <c r="D111" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>324</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>85</v>
       </c>
@@ -3407,8 +4187,11 @@
       <c r="D112" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -3421,8 +4204,11 @@
       <c r="D113" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>53</v>
       </c>
@@ -3435,8 +4221,14 @@
       <c r="D114" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>326</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -3449,8 +4241,14 @@
       <c r="D115" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>328</v>
+      </c>
+      <c r="G115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>86</v>
       </c>
@@ -3463,8 +4261,11 @@
       <c r="D116" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>88</v>
       </c>
@@ -3477,8 +4278,14 @@
       <c r="D117" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>330</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>68</v>
       </c>
@@ -3491,8 +4298,14 @@
       <c r="D118" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>332</v>
+      </c>
+      <c r="G118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>89</v>
       </c>
@@ -3505,8 +4318,11 @@
       <c r="D119" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>90</v>
       </c>
@@ -3519,8 +4335,11 @@
       <c r="D120" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>91</v>
       </c>
@@ -3533,8 +4352,14 @@
       <c r="D121" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>334</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>92</v>
       </c>
@@ -3547,8 +4372,11 @@
       <c r="D122" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>93</v>
       </c>
@@ -3561,8 +4389,11 @@
       <c r="D123" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>94</v>
       </c>
@@ -3575,8 +4406,11 @@
       <c r="D124" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>95</v>
       </c>
@@ -3589,8 +4423,11 @@
       <c r="D125" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>96</v>
       </c>
@@ -3603,8 +4440,11 @@
       <c r="D126" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>97</v>
       </c>
@@ -3617,8 +4457,11 @@
       <c r="D127" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>98</v>
       </c>
@@ -3631,8 +4474,11 @@
       <c r="D128" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>99</v>
       </c>
@@ -3645,8 +4491,11 @@
       <c r="D129" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>100</v>
       </c>
@@ -3659,8 +4508,11 @@
       <c r="D130" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>101</v>
       </c>
@@ -3673,8 +4525,11 @@
       <c r="D131" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>102</v>
       </c>
@@ -3687,8 +4542,14 @@
       <c r="D132" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>336</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -3701,8 +4562,11 @@
       <c r="D133" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>104</v>
       </c>
@@ -3715,8 +4579,11 @@
       <c r="D134" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>105</v>
       </c>
@@ -3729,8 +4596,11 @@
       <c r="D135" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>106</v>
       </c>
@@ -3743,8 +4613,11 @@
       <c r="D136" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>107</v>
       </c>
@@ -3757,8 +4630,11 @@
       <c r="D137" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>108</v>
       </c>
@@ -3771,8 +4647,11 @@
       <c r="D138" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>109</v>
       </c>
@@ -3785,8 +4664,14 @@
       <c r="D139" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>338</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>109</v>
       </c>
@@ -3799,8 +4684,11 @@
       <c r="D140" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>110</v>
       </c>
@@ -3813,8 +4701,11 @@
       <c r="D141" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>107</v>
       </c>
@@ -3827,8 +4718,11 @@
       <c r="D142" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>107</v>
       </c>
@@ -3841,8 +4735,11 @@
       <c r="D143" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>111</v>
       </c>
@@ -3855,8 +4752,11 @@
       <c r="D144" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -3869,8 +4769,11 @@
       <c r="D145" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>113</v>
       </c>
@@ -3883,8 +4786,11 @@
       <c r="D146" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>114</v>
       </c>
@@ -3897,8 +4803,11 @@
       <c r="D147" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>110</v>
       </c>
@@ -3911,8 +4820,11 @@
       <c r="D148" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>110</v>
       </c>
@@ -3925,8 +4837,11 @@
       <c r="D149" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>115</v>
       </c>
@@ -3939,8 +4854,11 @@
       <c r="D150" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>116</v>
       </c>
@@ -3953,8 +4871,11 @@
       <c r="D151" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>117</v>
       </c>
@@ -3967,8 +4888,11 @@
       <c r="D152" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1</v>
       </c>
@@ -3981,8 +4905,11 @@
       <c r="D153" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>118</v>
       </c>
@@ -3995,8 +4922,11 @@
       <c r="D154" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>119</v>
       </c>
@@ -4009,8 +4939,11 @@
       <c r="D155" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>119</v>
       </c>
@@ -4023,8 +4956,11 @@
       <c r="D156" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>120</v>
       </c>
@@ -4037,8 +4973,11 @@
       <c r="D157" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -4051,8 +4990,11 @@
       <c r="D158" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>122</v>
       </c>
@@ -4065,8 +5007,11 @@
       <c r="D159" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -4079,8 +5024,11 @@
       <c r="D160" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>123</v>
       </c>
@@ -4093,8 +5041,11 @@
       <c r="D161" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>79</v>
       </c>
@@ -4107,8 +5058,11 @@
       <c r="D162" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>124</v>
       </c>
@@ -4121,8 +5075,11 @@
       <c r="D163" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>125</v>
       </c>
@@ -4135,8 +5092,11 @@
       <c r="D164" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>126</v>
       </c>
@@ -4149,8 +5109,11 @@
       <c r="D165" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>127</v>
       </c>
@@ -4163,8 +5126,11 @@
       <c r="D166" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>128</v>
       </c>
@@ -4177,8 +5143,11 @@
       <c r="D167" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>121</v>
       </c>
@@ -4191,8 +5160,14 @@
       <c r="D168" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>340</v>
+      </c>
+      <c r="G168">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>129</v>
       </c>
@@ -4205,8 +5180,11 @@
       <c r="D169" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>130</v>
       </c>
@@ -4219,8 +5197,11 @@
       <c r="D170" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>131</v>
       </c>
@@ -4233,8 +5214,14 @@
       <c r="D171" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>342</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>132</v>
       </c>
@@ -4247,8 +5234,11 @@
       <c r="D172" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>54</v>
       </c>
@@ -4261,8 +5251,11 @@
       <c r="D173" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>133</v>
       </c>
@@ -4275,8 +5268,11 @@
       <c r="D174" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>134</v>
       </c>
@@ -4289,8 +5285,11 @@
       <c r="D175" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>135</v>
       </c>
@@ -4303,8 +5302,11 @@
       <c r="D176" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>54</v>
       </c>
@@ -4317,8 +5319,11 @@
       <c r="D177" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>136</v>
       </c>
@@ -4331,8 +5336,14 @@
       <c r="D178" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>344</v>
+      </c>
+      <c r="G178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>137</v>
       </c>
@@ -4345,8 +5356,11 @@
       <c r="D179" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>138</v>
       </c>
@@ -4359,8 +5373,11 @@
       <c r="D180" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>139</v>
       </c>
@@ -4373,8 +5390,11 @@
       <c r="D181" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>140</v>
       </c>
@@ -4387,8 +5407,11 @@
       <c r="D182" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -4401,8 +5424,11 @@
       <c r="D183" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>142</v>
       </c>
@@ -4415,8 +5441,11 @@
       <c r="D184" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>91</v>
       </c>
@@ -4429,8 +5458,11 @@
       <c r="D185" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>143</v>
       </c>
@@ -4443,8 +5475,11 @@
       <c r="D186" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>143</v>
       </c>
@@ -4457,8 +5492,11 @@
       <c r="D187" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>143</v>
       </c>
@@ -4471,8 +5509,11 @@
       <c r="D188" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>143</v>
       </c>
@@ -4485,8 +5526,14 @@
       <c r="D189" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>346</v>
+      </c>
+      <c r="G189">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>91</v>
       </c>
@@ -4499,8 +5546,14 @@
       <c r="D190" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>348</v>
+      </c>
+      <c r="G190">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>143</v>
       </c>
@@ -4513,8 +5566,11 @@
       <c r="D191" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>91</v>
       </c>
@@ -4527,8 +5583,11 @@
       <c r="D192" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>144</v>
       </c>
@@ -4541,8 +5600,11 @@
       <c r="D193" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>143</v>
       </c>
@@ -4555,8 +5617,11 @@
       <c r="D194" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>145</v>
       </c>
@@ -4569,8 +5634,11 @@
       <c r="D195" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>143</v>
       </c>
@@ -4583,8 +5651,14 @@
       <c r="D196" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>350</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>146</v>
       </c>
@@ -4597,8 +5671,14 @@
       <c r="D197" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>548</v>
+      </c>
+      <c r="G197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -4611,8 +5691,11 @@
       <c r="D198" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>91</v>
       </c>
@@ -4625,8 +5708,11 @@
       <c r="D199" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>147</v>
       </c>
@@ -4639,8 +5725,11 @@
       <c r="D200" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>141</v>
       </c>
@@ -4653,8 +5742,11 @@
       <c r="D201" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>148</v>
       </c>
@@ -4667,8 +5759,11 @@
       <c r="D202" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>149</v>
       </c>
@@ -4681,8 +5776,11 @@
       <c r="D203" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>150</v>
       </c>
@@ -4695,8 +5793,11 @@
       <c r="D204" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>151</v>
       </c>
@@ -4709,8 +5810,11 @@
       <c r="D205" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>152</v>
       </c>
@@ -4723,8 +5827,11 @@
       <c r="D206" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>149</v>
       </c>
@@ -4737,8 +5844,14 @@
       <c r="D207" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>354</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>149</v>
       </c>
@@ -4751,8 +5864,11 @@
       <c r="D208" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>153</v>
       </c>
@@ -4765,8 +5881,11 @@
       <c r="D209" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>154</v>
       </c>
@@ -4779,8 +5898,14 @@
       <c r="D210" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>356</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>155</v>
       </c>
@@ -4793,8 +5918,14 @@
       <c r="D211" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>358</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>156</v>
       </c>
@@ -4807,8 +5938,11 @@
       <c r="D212" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>157</v>
       </c>
@@ -4821,8 +5955,11 @@
       <c r="D213" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>158</v>
       </c>
@@ -4835,8 +5972,11 @@
       <c r="D214" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>158</v>
       </c>
@@ -4849,8 +5989,11 @@
       <c r="D215" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>158</v>
       </c>
@@ -4863,8 +6006,11 @@
       <c r="D216" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>159</v>
       </c>
@@ -4877,8 +6023,11 @@
       <c r="D217" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F217" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>160</v>
       </c>
@@ -4891,8 +6040,11 @@
       <c r="D218" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>161</v>
       </c>
@@ -4905,8 +6057,14 @@
       <c r="D219" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>360</v>
+      </c>
+      <c r="G219">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>162</v>
       </c>
@@ -4919,8 +6077,11 @@
       <c r="D220" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>153</v>
       </c>
@@ -4933,8 +6094,11 @@
       <c r="D221" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>163</v>
       </c>
@@ -4947,8 +6111,11 @@
       <c r="D222" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>153</v>
       </c>
@@ -4961,8 +6128,11 @@
       <c r="D223" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>153</v>
       </c>
@@ -4975,8 +6145,11 @@
       <c r="D224" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>153</v>
       </c>
@@ -4989,8 +6162,11 @@
       <c r="D225" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>153</v>
       </c>
@@ -5003,8 +6179,14 @@
       <c r="D226" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>362</v>
+      </c>
+      <c r="G226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>153</v>
       </c>
@@ -5017,8 +6199,14 @@
       <c r="D227" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>364</v>
+      </c>
+      <c r="G227">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>164</v>
       </c>
@@ -5031,8 +6219,11 @@
       <c r="D228" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>165</v>
       </c>
@@ -5045,8 +6236,11 @@
       <c r="D229" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F229" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>166</v>
       </c>
@@ -5059,8 +6253,11 @@
       <c r="D230" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>167</v>
       </c>
@@ -5073,8 +6270,11 @@
       <c r="D231" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>155</v>
       </c>
@@ -5087,8 +6287,11 @@
       <c r="D232" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>168</v>
       </c>
@@ -5101,8 +6304,11 @@
       <c r="D233" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F233" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>169</v>
       </c>
@@ -5115,8 +6321,11 @@
       <c r="D234" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F234" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>170</v>
       </c>
@@ -5129,8 +6338,11 @@
       <c r="D235" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>171</v>
       </c>
@@ -5143,8 +6355,11 @@
       <c r="D236" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>172</v>
       </c>
@@ -5157,8 +6372,11 @@
       <c r="D237" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>173</v>
       </c>
@@ -5171,8 +6389,11 @@
       <c r="D238" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>173</v>
       </c>
@@ -5185,8 +6406,14 @@
       <c r="D239" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F239" t="s">
+        <v>366</v>
+      </c>
+      <c r="G239">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>174</v>
       </c>
@@ -5199,8 +6426,11 @@
       <c r="D240" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>175</v>
       </c>
@@ -5213,8 +6443,11 @@
       <c r="D241" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F241" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>176</v>
       </c>
@@ -5227,8 +6460,11 @@
       <c r="D242" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>177</v>
       </c>
@@ -5241,8 +6477,14 @@
       <c r="D243" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>587</v>
+      </c>
+      <c r="G243">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>178</v>
       </c>
@@ -5255,8 +6497,11 @@
       <c r="D244" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F244" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>179</v>
       </c>
@@ -5269,8 +6514,14 @@
       <c r="D245" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>368</v>
+      </c>
+      <c r="G245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>180</v>
       </c>
@@ -5283,8 +6534,11 @@
       <c r="D246" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F246" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>181</v>
       </c>
@@ -5297,8 +6551,11 @@
       <c r="D247" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F247" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>182</v>
       </c>
@@ -5311,8 +6568,14 @@
       <c r="D248" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F248" t="s">
+        <v>591</v>
+      </c>
+      <c r="G248">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>183</v>
       </c>
@@ -5325,8 +6588,11 @@
       <c r="D249" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F249" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>184</v>
       </c>
@@ -5339,8 +6605,11 @@
       <c r="D250" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F250" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>185</v>
       </c>
@@ -5353,8 +6622,11 @@
       <c r="D251" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F251" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>186</v>
       </c>
@@ -5367,8 +6639,11 @@
       <c r="D252" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F252" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>187</v>
       </c>
@@ -5381,8 +6656,11 @@
       <c r="D253" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F253" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>187</v>
       </c>
@@ -5395,8 +6673,11 @@
       <c r="D254" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F254" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>188</v>
       </c>
@@ -5409,8 +6690,11 @@
       <c r="D255" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F255" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>189</v>
       </c>
@@ -5423,8 +6707,11 @@
       <c r="D256" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F256" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>190</v>
       </c>
@@ -5437,8 +6724,11 @@
       <c r="D257" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F257" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>191</v>
       </c>
@@ -5451,8 +6741,11 @@
       <c r="D258" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F258" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>192</v>
       </c>
@@ -5465,8 +6758,11 @@
       <c r="D259" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F259" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>193</v>
       </c>
@@ -5480,7 +6776,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>194</v>
       </c>
@@ -5494,7 +6790,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>195</v>
       </c>
@@ -5508,7 +6804,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>196</v>
       </c>
@@ -5522,7 +6818,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>197</v>
       </c>
@@ -5536,7 +6832,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>185</v>
       </c>
@@ -5550,7 +6846,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>185</v>
       </c>
@@ -5564,7 +6860,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>198</v>
       </c>
@@ -5578,7 +6874,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>199</v>
       </c>
@@ -5592,7 +6888,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>200</v>
       </c>
@@ -5606,7 +6902,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>201</v>
       </c>
@@ -5620,7 +6916,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>202</v>
       </c>
@@ -5634,7 +6930,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>203</v>
       </c>
@@ -7917,8 +9213,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D434">
-    <sortCondition ref="C1:C434"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G390">
+    <sortCondition ref="F1:F390"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
